--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T23:59:47+02:00</t>
+    <t>2023-09-05T10:10:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/CodeSystem/Hn-AppointmentTypeProposed-New-Codes-cs</t>
+    <t>http://helsenorge.no/fhir/CodeSystem/Hn-AppointmentTypeProposed-New-Codes-cs</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T10:10:09+02:00</t>
+    <t>2023-09-20T09:32:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-20T09:32:23+02:00</t>
+    <t>2023-09-25T00:16:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T00:16:31+02:00</t>
+    <t>2023-09-25T11:50:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T11:50:22+02:00</t>
+    <t>2023-09-25T15:31:18+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:31:18+02:00</t>
+    <t>2023-09-25T15:44:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:44:07+02:00</t>
+    <t>2023-10-05T16:09:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -54,10 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T16:09:33+02:00</t>
+    <t>2023-10-09T22:41:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -340,102 +343,104 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -453,75 +458,75 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2"/>
     </row>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T22:41:16+02:00</t>
+    <t>2023-10-11T00:03:21+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11T00:03:21+02:00</t>
+    <t>2023-10-12T00:15:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T00:15:11+02:00</t>
+    <t>2023-10-12T00:46:45+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t xml:space="preserve">New codes proposed as part of Timetype innbyggerportal </t>
+    <t>New codes proposed as part of Timetype innbyggerportal.</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T00:46:45+02:00</t>
+    <t>2023-11-08T00:53:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,9 +78,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>New codes proposed as part of Timetype innbyggerportal.</t>
-  </si>
-  <si>
     <t>Purpose</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>Case Sensitive</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>Value Set (all codes)</t>
@@ -376,26 +376,28 @@
         <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T00:53:28+01:00</t>
+    <t>2023-11-08T01:12:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T01:12:56+01:00</t>
+    <t>2023-11-08T15:53:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>New codes proposed as part of Timetype innbyggerportal.</t>
+    <t>New codes that shold be used as default for appointmentType.</t>
   </si>
   <si>
     <t>Status</t>
@@ -54,13 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
-    <t>false</t>
+    <t>true</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T15:53:02+01:00</t>
+    <t>2023-11-19T21:48:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,9 +87,6 @@
     <t>Case Sensitive</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>Value Set (all codes)</t>
   </si>
   <si>
@@ -114,7 +111,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>5</t>
+    <t>6</t>
   </si>
   <si>
     <t>Level</t>
@@ -135,10 +132,13 @@
     <t>Poliklinisktime</t>
   </si>
   <si>
-    <t>Behandling som gjøres uten innleggelse</t>
+    <t>Poliklinisk time</t>
   </si>
   <si>
     <t>Innleggelse</t>
+  </si>
+  <si>
+    <t>Dagbehandling</t>
   </si>
   <si>
     <t>Hjemmebesøk</t>
@@ -396,53 +396,53 @@
         <v>23</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,77 +460,89 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>34</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>35</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>36</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C7" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-19T21:48:09+01:00</t>
+    <t>2023-11-27T12:35:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T12:35:55+01:00</t>
+    <t>2023-12-04T09:08:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T09:08:22+01:00</t>
+    <t>2023-12-07T13:24:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T13:24:46+01:00</t>
+    <t>2023-12-07T15:19:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T15:19:19+01:00</t>
+    <t>2023-12-08T09:35:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T09:35:25+01:00</t>
+    <t>2023-12-08T12:58:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T12:58:44+01:00</t>
+    <t>2023-12-08T15:31:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T15:31:30+01:00</t>
+    <t>2023-12-13T23:52:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T23:52:19+01:00</t>
+    <t>2023-12-15T20:08:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T20:08:30+01:00</t>
+    <t>2023-12-19T12:28:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T12:28:54+01:00</t>
+    <t>2023-12-21T10:30:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-21T10:30:52+01:00</t>
+    <t>2024-01-15T07:10:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>New codes that shold be used as default for appointmentType.</t>
+    <t>Default codes for appointmentType.</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T07:10:14+01:00</t>
+    <t>2024-01-16T01:24:21+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>New codes that should be used as default for appointmentType.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -376,24 +379,24 @@
         <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>13</v>
@@ -401,48 +404,48 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -460,87 +463,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2"/>
     </row>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-16T01:24:21+01:00</t>
+    <t>2024-01-16T01:49:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-16T01:49:14+01:00</t>
+    <t>2024-02-09T14:16:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T14:16:42+01:00</t>
+    <t>2024-06-01T10:49:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-01T10:49:22+02:00</t>
+    <t>2025-01-31T12:01:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Example Publisher (http://example.org/example-publisher)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -284,7 +290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -386,66 +392,74 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s" s="2">
         <v>30</v>
       </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" t="s" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -463,87 +477,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2"/>
     </row>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T12:01:35+01:00</t>
+    <t>2025-01-31T15:15:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:15:59+01:00</t>
+    <t>2025-01-31T16:07:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:07:19+01:00</t>
+    <t>2025-02-01T23:53:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T23:53:20+01:00</t>
+    <t>2025-02-15T12:00:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
+++ b/CodeSystem-Hn-AppointmentTypeProposed-New-Codes-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-15T12:00:41+01:00</t>
+    <t>2025-06-05T14:31:57+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
